--- a/Equipe106.xlsx
+++ b/Equipe106.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25819"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26014"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1039" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4EB4FD6-2647-4CF4-8111-F74CBA8ED1C8}"/>
+  <xr:revisionPtr revIDLastSave="1260" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{456AFCB4-BFA8-4DA0-8298-E66DF350BB0B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="164">
   <si>
     <t>Fonct.</t>
   </si>
@@ -140,6 +140,9 @@
     <t>DrawCanvasComponent.coordDraw inutiles/ Tout comme tous les attributs de GameConstantsSettingsComponent</t>
   </si>
   <si>
+    <t>DialogUploadFormComponent.canvasType, DifferencesAreaComponent.nbDifferences, etc ...</t>
+  </si>
+  <si>
     <t>2.3 Accessibilité</t>
   </si>
   <si>
@@ -148,6 +151,11 @@
   </si>
   <si>
     <t>DialogUploadFormComponent.img devrait être privé. Tout comme DialogUploadFormComponent.isImageFormatCorrect. Comme DifferencesAreaComponent.nbDifferences, etc ...
+Règle générale : limiter le plus possible l'accessibilité</t>
+  </si>
+  <si>
+    <t>DialogUploadFormComponent.img, DrawCanvasComponent.pencil, etc peuvent être privés
+Les attributs ViewChild peuvent être privés
 Règle générale : limiter le plus possible l'accessibilité</t>
   </si>
   <si>
@@ -170,6 +178,12 @@
 CountdownTimerService.valueTimer également</t>
   </si>
   <si>
+    <t>DialogGameOverComponent.theme, RejectedDialogComponent.favoriteTheme, SidebarComponent.timer, UserNameInputComponent.favoriteTheme, CreateGamePageComponent.form etc ...</t>
+  </si>
+  <si>
+    <t>RejectedDialogComponent.favoriteTheme, UserNameInputComponent, CreateGamePageComponent, etc ont des attributs initialisés !=ment</t>
+  </si>
+  <si>
     <t>3. Fonctions et méthodes</t>
   </si>
   <si>
@@ -200,10 +214,16 @@
     <t>Vous n'avez pas besoin de lancer des exceptions. Au lieu de lancer une exception, il suffit de retourner un message d'erreur</t>
   </si>
   <si>
+    <t>Vous n'avez pas besoin de lancer des exceptions dans plusieurs des cas. Une classe qui gère des Pixel ne devrait pas lancer d'exceptions. Dans la majorité des cas, au lieu de lancer une exception, il suffit de retourner un message d'erreur.</t>
+  </si>
+  <si>
     <t>4.2 Code asynchrone</t>
   </si>
   <si>
     <t>Le code asynchrone (Promise, Observable, Event) est géré adéquatement.</t>
+  </si>
+  <si>
+    <t>Les fonctions fs.*sync ne devrait pas être utilisées</t>
   </si>
   <si>
     <t>4.3 Message d'erreur</t>
@@ -293,10 +313,19 @@
     <t>Trop de code mort commenté dans le projet. Pour les fonctionnalités futures, stockez les plutôt sur une branche auxiliaire</t>
   </si>
   <si>
+    <t>Un TODO oublié (CountdownTimerService). Un test commenté dans CreateGamePageComponent</t>
+  </si>
+  <si>
+    <t>Deux lignes de test commentées serveur l. 13 game-validation.service.ts et l. 187 game.spec.ts</t>
+  </si>
+  <si>
     <t>7.3 Enum</t>
   </si>
   <si>
     <t>Le code utilise des enum lorsque c'est pertinent.</t>
+  </si>
+  <si>
+    <t>Attention au format de vos enums (voir 7.8)</t>
   </si>
   <si>
     <t>7.4 Classe et interface</t>
@@ -318,6 +347,9 @@
 Des bouts de tests répétés plusieurs fois dans le même fichier : créez des fonctions, ou des variables plus globales dans le test</t>
   </si>
   <si>
+    <t>L. 128 SocketManagerService, code dupliqué. Utilisez une fonction</t>
+  </si>
+  <si>
     <t>7.6 ESLint</t>
   </si>
   <si>
@@ -335,6 +367,12 @@
   </si>
   <si>
     <t>moreThanFiveSeconds de timerCountdownComponent doit être simplifié</t>
+  </si>
+  <si>
+    <t>Attention, simplifier toImageData() de bmp.ts</t>
+  </si>
+  <si>
+    <t>Simplifier toImageData() de bmp.ts</t>
   </si>
   <si>
     <t>7.7 Nomenclature des variables, classes et méthodes</t>
@@ -345,6 +383,10 @@
 Les noms ne sont pas troncés excessivement. (Exemple: utiliser background au lieu de seulement bg).</t>
   </si>
   <si>
+    <t>Utilisez PascalCase au lieu de SCREAMING_SNAKE dans vos enums. Il y a présentement un mixte des deux.
+setcurrentCommand -&gt; setCurrentCommand dans DrawService</t>
+  </si>
+  <si>
     <t>7.8 Performance</t>
   </si>
   <si>
@@ -353,6 +395,9 @@
   <si>
     <t>Récupération des jeux dans la vue de sélection du jeu est trop lente.
 Trouver les différences avec un rayon de 15 px pourrait être accéléré.</t>
+  </si>
+  <si>
+    <t>Création de jeux avec des grosses images est long + il faut refresh la page de création de jeu pour pouvoir dessiner</t>
   </si>
   <si>
     <t>8. Gestion de versions</t>
@@ -384,6 +429,9 @@
 Les Issues sont mis à jour tout au long du projet.</t>
   </si>
   <si>
+    <t>Des issues du sprint 1/2 ne sont pas closed + des MRs sont approved alors que le pipeline fail</t>
+  </si>
+  <si>
     <t>8.5 Fichiers</t>
   </si>
   <si>
@@ -461,6 +509,12 @@
     <t>2.1 Vue de création de jeu - modification de l'avant-plan</t>
   </si>
   <si>
+    <t>- On ne peut pas effacer d'un clic, il faut drag
+- Efface circulaire et pas rectangulaire
+- Beaucoup de logique non testée dans DrawCanvasComponent
+- DrawService pratiquement pas testée</t>
+  </si>
+  <si>
     <t>2.2 Créer et Joindre une partie un contre un</t>
   </si>
   <si>
@@ -471,6 +525,9 @@
   </si>
   <si>
     <t>2.5 Vue d'Administration - suppression de jeu</t>
+  </si>
+  <si>
+    <t>- GameCardButtonsComponent : Logique de suppression non testée</t>
   </si>
   <si>
     <t xml:space="preserve">2.6 Messages de partie (local) </t>
@@ -780,7 +837,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1467,6 +1524,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1477,7 +1558,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2096,6 +2177,21 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="12" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2263,13 +2359,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="40 % - Accent1" xfId="4" builtinId="31"/>
-    <cellStyle name="40 % - Accent2" xfId="5" builtinId="35"/>
-    <cellStyle name="40 % - Accent3" xfId="6" builtinId="39"/>
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
-    <cellStyle name="Sortie" xfId="3" builtinId="21"/>
-    <cellStyle name="Texte explicatif" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="3" builtinId="21"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2353,7 +2449,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2641,7 +2737,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2653,7 +2749,7 @@
   <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2697,11 +2793,11 @@
       </c>
       <c r="C4" s="108">
         <f>'Assurance Qualité'!C59</f>
-        <v>0.71349999999999991</v>
+        <v>0.71750000000000003</v>
       </c>
       <c r="D4" s="108">
         <f>B4*0.6+C4*0.4 - 0.1*E4</f>
-        <v>0.78339999999999987</v>
+        <v>0.78499999999999992</v>
       </c>
       <c r="E4" s="109"/>
       <c r="F4" s="110">
@@ -2709,7 +2805,7 @@
       </c>
       <c r="G4" s="111">
         <f>D4*F4</f>
-        <v>15.667999999999997</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2718,15 +2814,15 @@
       </c>
       <c r="B5" s="113">
         <f>(Fonctionnalités!E27)</f>
-        <v>0</v>
+        <v>0.8448</v>
       </c>
       <c r="C5" s="113">
         <f>'Assurance Qualité'!F59</f>
-        <v>0</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="D5" s="113">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
+        <v>0.83328000000000002</v>
       </c>
       <c r="E5" s="114"/>
       <c r="F5" s="115">
@@ -2734,7 +2830,7 @@
       </c>
       <c r="G5" s="116">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>0</v>
+        <v>20.832000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2743,15 +2839,15 @@
       </c>
       <c r="B6" s="118">
         <f>(Fonctionnalités!E41)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="118">
         <f>'Assurance Qualité'!I59</f>
-        <v>0</v>
+        <v>0.95200000000000007</v>
       </c>
       <c r="D6" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.98080000000000001</v>
       </c>
       <c r="E6" s="119"/>
       <c r="F6" s="120">
@@ -2759,7 +2855,7 @@
       </c>
       <c r="G6" s="121">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.616</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2769,7 +2865,7 @@
       <c r="B7" s="122"/>
       <c r="C7" s="122"/>
       <c r="D7" s="123">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="E7" s="124"/>
       <c r="F7" s="122">
@@ -2777,7 +2873,7 @@
       </c>
       <c r="G7" s="125">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.2000000000000011</v>
       </c>
     </row>
   </sheetData>
@@ -2790,8 +2886,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2810,36 +2906,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="250" t="s">
+      <c r="A2" s="255" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="250"/>
-      <c r="C2" s="250"/>
-      <c r="D2" s="250"/>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="256" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="251"/>
-      <c r="C4" s="251"/>
-      <c r="D4" s="251"/>
-      <c r="E4" s="251"/>
-      <c r="F4" s="251"/>
-      <c r="G4" s="251"/>
-      <c r="H4" s="251"/>
-      <c r="I4" s="251"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="251"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
+      <c r="F4" s="256"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
@@ -2859,36 +2955,36 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="238" t="s">
+      <c r="A6" s="243" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="255" t="s">
+      <c r="B6" s="260" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="240" t="s">
+      <c r="C6" s="245" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="242" t="s">
+      <c r="D6" s="246"/>
+      <c r="E6" s="246"/>
+      <c r="F6" s="247" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="243"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="252" t="s">
+      <c r="G6" s="248"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="257" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="253"/>
-      <c r="K6" s="254"/>
+      <c r="J6" s="258"/>
+      <c r="K6" s="259"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="236"/>
-      <c r="O6" s="237"/>
-      <c r="P6" s="237"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="242"/>
+      <c r="P6" s="242"/>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="239"/>
-      <c r="B7" s="256"/>
+      <c r="A7" s="244"/>
+      <c r="B7" s="261"/>
       <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
@@ -2924,27 +3020,31 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="221" t="s">
+      <c r="A8" s="226" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="221"/>
-      <c r="C8" s="219" t="s">
+      <c r="B8" s="226"/>
+      <c r="C8" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="220"/>
+      <c r="D8" s="225"/>
       <c r="E8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="219" t="s">
+      <c r="F8" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="220"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="219" t="s">
+      <c r="G8" s="225"/>
+      <c r="H8" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="220"/>
-      <c r="K8" s="46"/>
+      <c r="J8" s="225"/>
+      <c r="K8" s="46" t="s">
+        <v>18</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="40"/>
@@ -2966,12 +3066,16 @@
         <v>6</v>
       </c>
       <c r="E9" s="101"/>
-      <c r="F9" s="102"/>
+      <c r="F9" s="102">
+        <v>1</v>
+      </c>
       <c r="G9" s="99">
         <v>6</v>
       </c>
       <c r="H9" s="103"/>
-      <c r="I9" s="104"/>
+      <c r="I9" s="104">
+        <v>1</v>
+      </c>
       <c r="J9" s="105">
         <v>6</v>
       </c>
@@ -2999,12 +3103,16 @@
       <c r="E10" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="102"/>
+      <c r="F10" s="102">
+        <v>1</v>
+      </c>
       <c r="G10" s="99">
         <v>2</v>
       </c>
       <c r="H10" s="103"/>
-      <c r="I10" s="104"/>
+      <c r="I10" s="104">
+        <v>1</v>
+      </c>
       <c r="J10" s="105">
         <v>2</v>
       </c>
@@ -3017,10 +3125,10 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A11" s="214" t="s">
+      <c r="A11" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="215"/>
+      <c r="B11" s="220"/>
       <c r="C11" s="47">
         <f>SUMPRODUCT(C6:C10,D6:D10)</f>
         <v>7.5</v>
@@ -3032,7 +3140,7 @@
       <c r="E11" s="49"/>
       <c r="F11" s="50">
         <f>SUMPRODUCT(F6:F10,G6:G10)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G11" s="51">
         <f>SUM(G6:G10)</f>
@@ -3041,7 +3149,7 @@
       <c r="H11" s="52"/>
       <c r="I11" s="53">
         <f>SUMPRODUCT(I6:I10,J6:J10)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J11" s="54">
         <f>SUM(J6:J10)</f>
@@ -3056,27 +3164,31 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="226" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="221"/>
-      <c r="C12" s="219" t="s">
+      <c r="B12" s="226"/>
+      <c r="C12" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="220"/>
+      <c r="D12" s="225"/>
       <c r="E12" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="219" t="s">
+      <c r="F12" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="220"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="219" t="s">
+      <c r="G12" s="225"/>
+      <c r="H12" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="220"/>
-      <c r="K12" s="46"/>
+      <c r="J12" s="225"/>
+      <c r="K12" s="46" t="s">
+        <v>18</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="43"/>
@@ -3100,13 +3212,17 @@
       <c r="E13" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="89"/>
+      <c r="F13" s="89">
+        <v>1</v>
+      </c>
       <c r="G13" s="90">
         <f>D13</f>
         <v>3</v>
       </c>
       <c r="H13" s="91"/>
-      <c r="I13" s="92"/>
+      <c r="I13" s="92">
+        <v>1</v>
+      </c>
       <c r="J13" s="93">
         <f>G13</f>
         <v>3</v>
@@ -3131,13 +3247,19 @@
       <c r="E14" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="86"/>
+      <c r="F14" s="86">
+        <v>0</v>
+      </c>
       <c r="G14" s="90">
         <f t="shared" ref="G14:G17" si="0">D14</f>
         <v>2</v>
       </c>
-      <c r="H14" s="88"/>
-      <c r="I14" s="76"/>
+      <c r="H14" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="76">
+        <v>1</v>
+      </c>
       <c r="J14" s="93">
         <f t="shared" ref="J14:J17" si="1">G14</f>
         <v>2</v>
@@ -3148,10 +3270,10 @@
     </row>
     <row r="15" spans="1:17" ht="198">
       <c r="A15" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="83">
         <v>0</v>
@@ -3160,15 +3282,21 @@
         <v>2</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="86"/>
+        <v>35</v>
+      </c>
+      <c r="F15" s="86">
+        <v>0</v>
+      </c>
       <c r="G15" s="90">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H15" s="88"/>
-      <c r="I15" s="76"/>
+      <c r="H15" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="76">
+        <v>1</v>
+      </c>
       <c r="J15" s="93">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -3179,10 +3307,10 @@
     </row>
     <row r="16" spans="1:17" ht="30.75">
       <c r="A16" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="83">
         <v>1</v>
@@ -3191,13 +3319,17 @@
         <v>4</v>
       </c>
       <c r="E16" s="85"/>
-      <c r="F16" s="86"/>
+      <c r="F16" s="86">
+        <v>1</v>
+      </c>
       <c r="G16" s="90">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H16" s="88"/>
-      <c r="I16" s="76"/>
+      <c r="I16" s="76">
+        <v>1</v>
+      </c>
       <c r="J16" s="93">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3208,10 +3340,10 @@
     </row>
     <row r="17" spans="1:17" ht="183">
       <c r="A17" s="23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="83">
         <v>0</v>
@@ -3220,28 +3352,36 @@
         <v>4</v>
       </c>
       <c r="E17" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="86"/>
+        <v>41</v>
+      </c>
+      <c r="F17" s="86">
+        <v>0</v>
+      </c>
       <c r="G17" s="90">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H17" s="88"/>
-      <c r="I17" s="76"/>
+      <c r="H17" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="76">
+        <v>0</v>
+      </c>
       <c r="J17" s="93">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K17" s="78"/>
+      <c r="K17" s="78" t="s">
+        <v>43</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A18" s="214" t="s">
+      <c r="A18" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="215"/>
+      <c r="B18" s="220"/>
       <c r="C18" s="47">
         <f>SUMPRODUCT(C13:C17,D13:D17)</f>
         <v>6.25</v>
@@ -3253,7 +3393,7 @@
       <c r="E18" s="49"/>
       <c r="F18" s="50">
         <f>SUMPRODUCT(F13:F17,G13:G17)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G18" s="51">
         <f>SUM(G13:G17)</f>
@@ -3262,7 +3402,7 @@
       <c r="H18" s="52"/>
       <c r="I18" s="53">
         <f>SUMPRODUCT(I13:I17,J13:J17)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J18" s="54">
         <f>SUM(J13:J17)</f>
@@ -3277,36 +3417,40 @@
       <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="235" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="235"/>
-      <c r="C19" s="219" t="s">
+      <c r="A19" s="240" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="240"/>
+      <c r="C19" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="220"/>
+      <c r="D19" s="225"/>
       <c r="E19" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="219" t="s">
+      <c r="F19" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="220"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="219" t="s">
+      <c r="G19" s="225"/>
+      <c r="H19" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="220"/>
-      <c r="K19" s="46"/>
+      <c r="J19" s="225"/>
+      <c r="K19" s="46" t="s">
+        <v>18</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="45.75">
       <c r="A20" s="23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C20" s="83">
         <v>1</v>
@@ -3315,12 +3459,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
+      <c r="F20" s="86">
+        <v>1</v>
+      </c>
       <c r="G20" s="87">
         <v>3</v>
       </c>
       <c r="H20" s="88"/>
-      <c r="I20" s="76"/>
+      <c r="I20" s="76">
+        <v>1</v>
+      </c>
       <c r="J20" s="77">
         <v>3</v>
       </c>
@@ -3330,10 +3478,10 @@
     </row>
     <row r="21" spans="1:17" ht="30.75">
       <c r="A21" s="23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C21" s="83">
         <v>1</v>
@@ -3342,12 +3490,16 @@
         <v>3</v>
       </c>
       <c r="E21" s="85"/>
-      <c r="F21" s="86"/>
+      <c r="F21" s="86">
+        <v>1</v>
+      </c>
       <c r="G21" s="87">
         <v>3</v>
       </c>
       <c r="H21" s="88"/>
-      <c r="I21" s="76"/>
+      <c r="I21" s="76">
+        <v>1</v>
+      </c>
       <c r="J21" s="77">
         <v>3</v>
       </c>
@@ -3356,10 +3508,10 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A22" s="257" t="s">
+      <c r="A22" s="262" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="246"/>
+      <c r="B22" s="251"/>
       <c r="C22" s="57">
         <f>SUMPRODUCT(C20:C21,D20:D21)</f>
         <v>6</v>
@@ -3371,7 +3523,7 @@
       <c r="E22" s="59"/>
       <c r="F22" s="60">
         <f>SUMPRODUCT(F20:F21,G20:G21)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G22" s="61">
         <f>SUM(G20:G21)</f>
@@ -3380,7 +3532,7 @@
       <c r="H22" s="62"/>
       <c r="I22" s="63">
         <f>SUMPRODUCT(I20:I21,J20:J21)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J22" s="64">
         <f>SUM(J20:J21)</f>
@@ -3392,35 +3544,39 @@
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1">
       <c r="A23" s="45" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B23" s="45"/>
-      <c r="C23" s="219" t="s">
+      <c r="C23" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="220"/>
+      <c r="D23" s="225"/>
       <c r="E23" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="219" t="s">
+      <c r="F23" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="220"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="219" t="s">
+      <c r="G23" s="225"/>
+      <c r="H23" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="220"/>
-      <c r="K23" s="46"/>
+      <c r="J23" s="225"/>
+      <c r="K23" s="46" t="s">
+        <v>18</v>
+      </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:17" ht="30.75">
+    <row r="24" spans="1:17" ht="183">
       <c r="A24" s="42" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C24" s="97">
         <v>0</v>
@@ -3428,28 +3584,36 @@
       <c r="D24" s="25">
         <v>2</v>
       </c>
-      <c r="E24" s="247" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="82"/>
+      <c r="E24" s="252" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="82">
+        <v>1</v>
+      </c>
       <c r="G24" s="27">
         <v>2</v>
       </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="73"/>
+      <c r="H24" s="216" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="73">
+        <v>1</v>
+      </c>
       <c r="J24" s="74">
         <v>2</v>
       </c>
-      <c r="K24" s="75"/>
+      <c r="K24" s="75" t="s">
+        <v>52</v>
+      </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" ht="45.75">
       <c r="A25" s="23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C25" s="83">
         <v>0</v>
@@ -3457,13 +3621,19 @@
       <c r="D25" s="84">
         <v>1</v>
       </c>
-      <c r="E25" s="248"/>
-      <c r="F25" s="86"/>
+      <c r="E25" s="253"/>
+      <c r="F25" s="86">
+        <v>0</v>
+      </c>
       <c r="G25" s="87">
         <v>1</v>
       </c>
-      <c r="H25" s="88"/>
-      <c r="I25" s="76"/>
+      <c r="H25" s="215" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="76">
+        <v>1</v>
+      </c>
       <c r="J25" s="77">
         <v>1</v>
       </c>
@@ -3473,10 +3643,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="23" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C26" s="83">
         <v>0</v>
@@ -3484,13 +3654,17 @@
       <c r="D26" s="84">
         <v>1</v>
       </c>
-      <c r="E26" s="249"/>
-      <c r="F26" s="86"/>
+      <c r="E26" s="254"/>
+      <c r="F26" s="86">
+        <v>1</v>
+      </c>
       <c r="G26" s="87">
         <v>1</v>
       </c>
-      <c r="H26" s="88"/>
-      <c r="I26" s="76"/>
+      <c r="H26" s="214"/>
+      <c r="I26" s="76">
+        <v>1</v>
+      </c>
       <c r="J26" s="77">
         <v>1</v>
       </c>
@@ -3499,10 +3673,10 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A27" s="245" t="s">
+      <c r="A27" s="250" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="246"/>
+      <c r="B27" s="251"/>
       <c r="C27" s="47">
         <f>SUMPRODUCT(C24:C26,D24:D26)</f>
         <v>0</v>
@@ -3514,7 +3688,7 @@
       <c r="E27" s="49"/>
       <c r="F27" s="60">
         <f>SUMPRODUCT(F24:F26,G24:G26)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" s="61">
         <f>SUM(G24:G26)</f>
@@ -3523,7 +3697,7 @@
       <c r="H27" s="62"/>
       <c r="I27" s="63">
         <f>SUMPRODUCT(I24:I26,J24:J26)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" s="64">
         <f>SUM(J24:J26)</f>
@@ -3534,36 +3708,36 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1">
-      <c r="A28" s="235" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="235"/>
-      <c r="C28" s="219" t="s">
+      <c r="A28" s="240" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="240"/>
+      <c r="C28" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="220"/>
+      <c r="D28" s="225"/>
       <c r="E28" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="219" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="220"/>
+      <c r="G28" s="225"/>
       <c r="H28" s="66"/>
-      <c r="I28" s="219" t="s">
+      <c r="I28" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="220"/>
+      <c r="J28" s="225"/>
       <c r="K28" s="46"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="31" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C29" s="79">
         <v>1</v>
@@ -3572,13 +3746,17 @@
         <v>2</v>
       </c>
       <c r="E29" s="81"/>
-      <c r="F29" s="89"/>
+      <c r="F29" s="89">
+        <v>1</v>
+      </c>
       <c r="G29" s="90">
         <f>D29</f>
         <v>2</v>
       </c>
       <c r="H29" s="95"/>
-      <c r="I29" s="92"/>
+      <c r="I29" s="92">
+        <v>1</v>
+      </c>
       <c r="J29" s="93">
         <f>D29</f>
         <v>2</v>
@@ -3589,10 +3767,10 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="24" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C30" s="83">
         <v>1</v>
@@ -3601,13 +3779,17 @@
         <v>2</v>
       </c>
       <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
+      <c r="F30" s="86">
+        <v>1</v>
+      </c>
       <c r="G30" s="90">
         <f t="shared" ref="G30:G31" si="2">D30</f>
         <v>2</v>
       </c>
       <c r="H30" s="96"/>
-      <c r="I30" s="76"/>
+      <c r="I30" s="76">
+        <v>1</v>
+      </c>
       <c r="J30" s="93">
         <f t="shared" ref="J30:J31" si="3">D30</f>
         <v>2</v>
@@ -3618,10 +3800,10 @@
     </row>
     <row r="31" spans="1:17" ht="30.75">
       <c r="A31" s="24" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C31" s="83">
         <v>1</v>
@@ -3630,13 +3812,17 @@
         <v>2</v>
       </c>
       <c r="E31" s="85"/>
-      <c r="F31" s="86"/>
+      <c r="F31" s="86">
+        <v>1</v>
+      </c>
       <c r="G31" s="90">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H31" s="96"/>
-      <c r="I31" s="76"/>
+      <c r="I31" s="76">
+        <v>1</v>
+      </c>
       <c r="J31" s="93">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3646,10 +3832,10 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A32" s="214" t="s">
+      <c r="A32" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="215"/>
+      <c r="B32" s="220"/>
       <c r="C32" s="47">
         <f>SUMPRODUCT(C29:C31,D29:D31)</f>
         <v>6</v>
@@ -3661,7 +3847,7 @@
       <c r="E32" s="49"/>
       <c r="F32" s="50">
         <f>SUMPRODUCT(F29:F31,G29:G31)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G32" s="51">
         <f>SUM(G29:G31)</f>
@@ -3670,7 +3856,7 @@
       <c r="H32" s="67"/>
       <c r="I32" s="63">
         <f>SUMPRODUCT(I29:I31,J29:J31)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J32" s="64">
         <f>SUM(J29:J31)</f>
@@ -3681,21 +3867,21 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="221" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="221"/>
-      <c r="C33" s="219" t="s">
+      <c r="A33" s="226" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="226"/>
+      <c r="C33" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="220"/>
+      <c r="D33" s="225"/>
       <c r="E33" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="219" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="220"/>
+      <c r="G33" s="225"/>
       <c r="H33" s="46"/>
       <c r="I33" s="68" t="s">
         <v>17</v>
@@ -3707,10 +3893,10 @@
     </row>
     <row r="34" spans="1:13" ht="76.5">
       <c r="A34" s="29" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C34" s="79">
         <v>0.75</v>
@@ -3719,14 +3905,18 @@
         <v>2</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="89"/>
+        <v>70</v>
+      </c>
+      <c r="F34" s="89">
+        <v>1</v>
+      </c>
       <c r="G34" s="90">
         <v>2</v>
       </c>
       <c r="H34" s="91"/>
-      <c r="I34" s="92"/>
+      <c r="I34" s="92">
+        <v>1</v>
+      </c>
       <c r="J34" s="93">
         <v>2</v>
       </c>
@@ -3736,10 +3926,10 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="23" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C35" s="83">
         <v>1</v>
@@ -3748,12 +3938,16 @@
         <v>2</v>
       </c>
       <c r="E35" s="85"/>
-      <c r="F35" s="86"/>
+      <c r="F35" s="86">
+        <v>1</v>
+      </c>
       <c r="G35" s="87">
         <v>2</v>
       </c>
       <c r="H35" s="88"/>
-      <c r="I35" s="76"/>
+      <c r="I35" s="76">
+        <v>1</v>
+      </c>
       <c r="J35" s="77">
         <v>2</v>
       </c>
@@ -3763,10 +3957,10 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="23" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C36" s="83">
         <v>1</v>
@@ -3775,12 +3969,16 @@
         <v>3</v>
       </c>
       <c r="E36" s="85"/>
-      <c r="F36" s="86"/>
+      <c r="F36" s="86">
+        <v>1</v>
+      </c>
       <c r="G36" s="87">
         <v>3</v>
       </c>
       <c r="H36" s="88"/>
-      <c r="I36" s="76"/>
+      <c r="I36" s="76">
+        <v>1</v>
+      </c>
       <c r="J36" s="77">
         <v>3</v>
       </c>
@@ -3790,10 +3988,10 @@
     </row>
     <row r="37" spans="1:13" ht="45.75">
       <c r="A37" s="23" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C37" s="83">
         <v>1</v>
@@ -3802,12 +4000,16 @@
         <v>3</v>
       </c>
       <c r="E37" s="85"/>
-      <c r="F37" s="86"/>
+      <c r="F37" s="86">
+        <v>1</v>
+      </c>
       <c r="G37" s="87">
         <v>3</v>
       </c>
       <c r="H37" s="88"/>
-      <c r="I37" s="76"/>
+      <c r="I37" s="76">
+        <v>1</v>
+      </c>
       <c r="J37" s="77">
         <v>3</v>
       </c>
@@ -3816,10 +4018,10 @@
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" s="44" customFormat="1" ht="15.75">
-      <c r="A38" s="214" t="s">
+      <c r="A38" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="215"/>
+      <c r="B38" s="220"/>
       <c r="C38" s="69">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>9.5</v>
@@ -3831,7 +4033,7 @@
       <c r="E38" s="49"/>
       <c r="F38" s="70">
         <f>SUMPRODUCT(F34:F37,G34:G37)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G38" s="51">
         <f>SUM(G34:G37)</f>
@@ -3840,7 +4042,7 @@
       <c r="H38" s="52"/>
       <c r="I38" s="63">
         <f>SUMPRODUCT(I34:I37,J34:J37)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J38" s="64">
         <f>SUM(J34:J37)</f>
@@ -3852,35 +4054,39 @@
     </row>
     <row r="39" spans="1:13" ht="18.75" customHeight="1">
       <c r="A39" s="45" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B39" s="45"/>
-      <c r="C39" s="219" t="s">
+      <c r="C39" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="220"/>
+      <c r="D39" s="225"/>
       <c r="E39" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="F39" s="219" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="220"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="219" t="s">
+      <c r="G39" s="225"/>
+      <c r="H39" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="220"/>
-      <c r="K39" s="46"/>
+      <c r="J39" s="225"/>
+      <c r="K39" s="46" t="s">
+        <v>78</v>
+      </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" ht="60.75">
       <c r="A40" s="23" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C40" s="83">
         <v>0.5</v>
@@ -3889,15 +4095,19 @@
         <v>2</v>
       </c>
       <c r="E40" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="86"/>
+        <v>81</v>
+      </c>
+      <c r="F40" s="86">
+        <v>1</v>
+      </c>
       <c r="G40" s="87">
         <f>D40</f>
         <v>2</v>
       </c>
       <c r="H40" s="88"/>
-      <c r="I40" s="76"/>
+      <c r="I40" s="76">
+        <v>1</v>
+      </c>
       <c r="J40" s="77">
         <f>D40</f>
         <v>2</v>
@@ -3908,10 +4118,10 @@
     </row>
     <row r="41" spans="1:13" ht="106.5">
       <c r="A41" s="23" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C41" s="83">
         <v>0</v>
@@ -3920,29 +4130,37 @@
         <v>2</v>
       </c>
       <c r="E41" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" s="86"/>
+        <v>84</v>
+      </c>
+      <c r="F41" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G41" s="87">
         <f t="shared" ref="G41:G48" si="4">D41</f>
         <v>2</v>
       </c>
-      <c r="H41" s="88"/>
-      <c r="I41" s="76"/>
+      <c r="H41" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="76">
+        <v>0.9</v>
+      </c>
       <c r="J41" s="77">
         <f t="shared" ref="J41:J48" si="5">D41</f>
         <v>2</v>
       </c>
-      <c r="K41" s="78"/>
+      <c r="K41" s="78" t="s">
+        <v>86</v>
+      </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" ht="30.75">
       <c r="A42" s="23" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C42" s="83">
         <v>1</v>
@@ -3951,13 +4169,19 @@
         <v>2</v>
       </c>
       <c r="E42" s="85"/>
-      <c r="F42" s="86"/>
+      <c r="F42" s="86">
+        <v>1</v>
+      </c>
       <c r="G42" s="87">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H42" s="88"/>
-      <c r="I42" s="76"/>
+      <c r="H42" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" s="76">
+        <v>1</v>
+      </c>
       <c r="J42" s="77">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -3967,27 +4191,31 @@
     </row>
     <row r="43" spans="1:13" ht="60.75">
       <c r="A43" s="23" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C43" s="83">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D43" s="84">
         <v>4</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="F43" s="86"/>
+        <v>92</v>
+      </c>
+      <c r="F43" s="86">
+        <v>1</v>
+      </c>
       <c r="G43" s="87">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H43" s="88"/>
-      <c r="I43" s="76"/>
+      <c r="I43" s="76">
+        <v>1</v>
+      </c>
       <c r="J43" s="77">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -3998,10 +4226,10 @@
     </row>
     <row r="44" spans="1:13" ht="137.25">
       <c r="A44" s="23" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C44" s="83">
         <v>0.5</v>
@@ -4010,15 +4238,21 @@
         <v>6</v>
       </c>
       <c r="E44" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="F44" s="86"/>
+        <v>95</v>
+      </c>
+      <c r="F44" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G44" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H44" s="88"/>
-      <c r="I44" s="76"/>
+      <c r="H44" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="I44" s="76">
+        <v>1</v>
+      </c>
       <c r="J44" s="77">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -4029,10 +4263,10 @@
     </row>
     <row r="45" spans="1:13" ht="45.75">
       <c r="A45" s="23" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C45" s="83">
         <v>0.25</v>
@@ -4041,15 +4275,19 @@
         <v>8</v>
       </c>
       <c r="E45" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="F45" s="86"/>
+        <v>99</v>
+      </c>
+      <c r="F45" s="86">
+        <v>1</v>
+      </c>
       <c r="G45" s="87">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="H45" s="88"/>
-      <c r="I45" s="76"/>
+      <c r="I45" s="76">
+        <v>1</v>
+      </c>
       <c r="J45" s="77">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -4060,10 +4298,10 @@
     </row>
     <row r="46" spans="1:13" ht="76.5">
       <c r="A46" s="23" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C46" s="83">
         <v>0.75</v>
@@ -4072,29 +4310,37 @@
         <v>6</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="F46" s="86"/>
+        <v>102</v>
+      </c>
+      <c r="F46" s="86">
+        <v>1</v>
+      </c>
       <c r="G46" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H46" s="88"/>
-      <c r="I46" s="76"/>
+      <c r="H46" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="I46" s="76">
+        <v>0.9</v>
+      </c>
       <c r="J46" s="77">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K46" s="78"/>
+      <c r="K46" s="78" t="s">
+        <v>104</v>
+      </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:13" ht="76.5">
+    <row r="47" spans="1:13" ht="137.25">
       <c r="A47" s="23" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C47" s="83">
         <v>1</v>
@@ -4103,13 +4349,19 @@
         <v>6</v>
       </c>
       <c r="E47" s="85"/>
-      <c r="F47" s="86"/>
+      <c r="F47" s="86">
+        <v>0.6</v>
+      </c>
       <c r="G47" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H47" s="88"/>
-      <c r="I47" s="76"/>
+      <c r="H47" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="I47" s="76">
+        <v>1</v>
+      </c>
       <c r="J47" s="77">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -4120,10 +4372,10 @@
     </row>
     <row r="48" spans="1:13" ht="106.5">
       <c r="A48" s="13" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C48" s="83">
         <v>0.75</v>
@@ -4132,15 +4384,21 @@
         <v>4</v>
       </c>
       <c r="E48" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="F48" s="86"/>
+        <v>110</v>
+      </c>
+      <c r="F48" s="86">
+        <v>0.75</v>
+      </c>
       <c r="G48" s="87">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H48" s="88"/>
-      <c r="I48" s="76"/>
+      <c r="H48" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="I48" s="76">
+        <v>1</v>
+      </c>
       <c r="J48" s="77">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4150,13 +4408,13 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A49" s="214" t="s">
+      <c r="A49" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="215"/>
+      <c r="B49" s="220"/>
       <c r="C49" s="71">
         <f>SUMPRODUCT(C40:C48,D40:D48)</f>
-        <v>25.1</v>
+        <v>25.5</v>
       </c>
       <c r="D49" s="58">
         <f>SUM(D40:D48)</f>
@@ -4165,7 +4423,7 @@
       <c r="E49" s="59"/>
       <c r="F49" s="70">
         <f>SUMPRODUCT(F40:F48,G40:G48)</f>
-        <v>0</v>
+        <v>32.6</v>
       </c>
       <c r="G49" s="51">
         <f>SUM(G40:G48)</f>
@@ -4174,7 +4432,7 @@
       <c r="H49" s="52"/>
       <c r="I49" s="53">
         <f>SUMPRODUCT(I40:I48,J40:J48)</f>
-        <v>0</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="J49" s="54">
         <f>SUM(J40:J48)</f>
@@ -4189,36 +4447,36 @@
       <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A50" s="221" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="221"/>
-      <c r="C50" s="219" t="s">
+      <c r="A50" s="226" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="226"/>
+      <c r="C50" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="220"/>
+      <c r="D50" s="225"/>
       <c r="E50" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="219" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="G50" s="220"/>
+      <c r="G50" s="225"/>
       <c r="H50" s="46"/>
-      <c r="I50" s="219" t="s">
+      <c r="I50" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="220"/>
+      <c r="J50" s="225"/>
       <c r="K50" s="46"/>
       <c r="L50" s="8"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="29" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C51" s="79">
         <v>1</v>
@@ -4227,12 +4485,16 @@
         <v>2</v>
       </c>
       <c r="E51" s="81"/>
-      <c r="F51" s="82"/>
+      <c r="F51" s="82">
+        <v>1</v>
+      </c>
       <c r="G51" s="27">
         <v>2</v>
       </c>
       <c r="H51" s="28"/>
-      <c r="I51" s="73"/>
+      <c r="I51" s="73">
+        <v>1</v>
+      </c>
       <c r="J51" s="74">
         <v>2</v>
       </c>
@@ -4242,10 +4504,10 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="23" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C52" s="83">
         <v>1</v>
@@ -4254,12 +4516,16 @@
         <v>2</v>
       </c>
       <c r="E52" s="85"/>
-      <c r="F52" s="86"/>
+      <c r="F52" s="86">
+        <v>1</v>
+      </c>
       <c r="G52" s="87">
         <v>2</v>
       </c>
       <c r="H52" s="88"/>
-      <c r="I52" s="76"/>
+      <c r="I52" s="76">
+        <v>1</v>
+      </c>
       <c r="J52" s="77">
         <v>2</v>
       </c>
@@ -4269,10 +4535,10 @@
     </row>
     <row r="53" spans="1:17" ht="30.75">
       <c r="A53" s="23" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C53" s="83">
         <v>1</v>
@@ -4281,12 +4547,16 @@
         <v>1</v>
       </c>
       <c r="E53" s="85"/>
-      <c r="F53" s="86"/>
+      <c r="F53" s="86">
+        <v>1</v>
+      </c>
       <c r="G53" s="87">
         <v>1</v>
       </c>
       <c r="H53" s="88"/>
-      <c r="I53" s="76"/>
+      <c r="I53" s="76">
+        <v>1</v>
+      </c>
       <c r="J53" s="77">
         <v>1</v>
       </c>
@@ -4294,12 +4564,12 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
     </row>
-    <row r="54" spans="1:17" ht="60.75">
+    <row r="54" spans="1:17" ht="76.5">
       <c r="A54" s="23" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C54" s="83">
         <v>1</v>
@@ -4308,12 +4578,18 @@
         <v>4</v>
       </c>
       <c r="E54" s="85"/>
-      <c r="F54" s="86"/>
+      <c r="F54" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G54" s="87">
         <v>4</v>
       </c>
-      <c r="H54" s="88"/>
-      <c r="I54" s="76"/>
+      <c r="H54" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="I54" s="76">
+        <v>1</v>
+      </c>
       <c r="J54" s="77">
         <v>4</v>
       </c>
@@ -4323,10 +4599,10 @@
     </row>
     <row r="55" spans="1:17" ht="30.75">
       <c r="A55" s="23" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C55" s="83">
         <v>1</v>
@@ -4335,12 +4611,16 @@
         <v>2</v>
       </c>
       <c r="E55" s="85"/>
-      <c r="F55" s="86"/>
+      <c r="F55" s="86">
+        <v>1</v>
+      </c>
       <c r="G55" s="87">
         <v>2</v>
       </c>
       <c r="H55" s="88"/>
-      <c r="I55" s="76"/>
+      <c r="I55" s="76">
+        <v>1</v>
+      </c>
       <c r="J55" s="77">
         <v>2</v>
       </c>
@@ -4349,10 +4629,10 @@
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A56" s="214" t="s">
+      <c r="A56" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="215"/>
+      <c r="B56" s="220"/>
       <c r="C56" s="57">
         <f>SUMPRODUCT(C51:C55,D51:D55)</f>
         <v>11</v>
@@ -4364,7 +4644,7 @@
       <c r="E56" s="59"/>
       <c r="F56" s="60">
         <f>SUMPRODUCT(F51:F55,G51:G55)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G56" s="61">
         <f>SUM(G51:G55)</f>
@@ -4373,7 +4653,7 @@
       <c r="H56" s="62"/>
       <c r="I56" s="53">
         <f>SUMPRODUCT(I51:I55,J51:J55)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J56" s="54">
         <f>SUM(J51:J55)</f>
@@ -4384,30 +4664,30 @@
       <c r="M56" s="56"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A57" s="216" t="s">
+      <c r="A57" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="217"/>
-      <c r="C57" s="217"/>
-      <c r="D57" s="217"/>
-      <c r="E57" s="217"/>
-      <c r="F57" s="217"/>
-      <c r="G57" s="217"/>
-      <c r="H57" s="217"/>
-      <c r="I57" s="217"/>
-      <c r="J57" s="217"/>
-      <c r="K57" s="218"/>
+      <c r="B57" s="222"/>
+      <c r="C57" s="222"/>
+      <c r="D57" s="222"/>
+      <c r="E57" s="222"/>
+      <c r="F57" s="222"/>
+      <c r="G57" s="222"/>
+      <c r="H57" s="222"/>
+      <c r="I57" s="222"/>
+      <c r="J57" s="222"/>
+      <c r="K57" s="223"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="222" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" s="223"/>
+      <c r="A58" s="227" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="228"/>
       <c r="C58" s="34">
         <f>C11+C18+C22+C27+C32+C38+C49+C56</f>
-        <v>71.349999999999994</v>
+        <v>71.75</v>
       </c>
       <c r="D58" s="25">
         <f>D11+D18+D22+D27+D32+D38+D49+D56</f>
@@ -4416,7 +4696,7 @@
       <c r="E58" s="26"/>
       <c r="F58" s="35">
         <f>F11+F18+F22+F27+F32+F38+F49+F56</f>
-        <v>0</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="G58" s="27">
         <f>G11+G18+G22+G27+G32+G38+G49+G56</f>
@@ -4425,7 +4705,7 @@
       <c r="H58" s="28"/>
       <c r="I58" s="210">
         <f>I11+I18+I22+I27+I32+I38+I49+I56</f>
-        <v>0</v>
+        <v>95.2</v>
       </c>
       <c r="J58" s="32">
         <f>J11+J18+J22+J27+J32+J38+J49+J56</f>
@@ -4436,28 +4716,28 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A59" s="224" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59" s="225"/>
-      <c r="C59" s="226">
+      <c r="A59" s="229" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="230"/>
+      <c r="C59" s="231">
         <f>C58/D58</f>
-        <v>0.71349999999999991</v>
-      </c>
-      <c r="D59" s="227"/>
-      <c r="E59" s="228"/>
-      <c r="F59" s="229">
+        <v>0.71750000000000003</v>
+      </c>
+      <c r="D59" s="232"/>
+      <c r="E59" s="233"/>
+      <c r="F59" s="234">
         <f>F58/G58</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="230"/>
-      <c r="H59" s="231"/>
-      <c r="I59" s="232">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="G59" s="235"/>
+      <c r="H59" s="236"/>
+      <c r="I59" s="237">
         <f>I58/J58</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="233"/>
-      <c r="K59" s="234"/>
+        <v>0.95200000000000007</v>
+      </c>
+      <c r="J59" s="238"/>
+      <c r="K59" s="239"/>
       <c r="L59" s="72"/>
       <c r="M59" s="72"/>
     </row>
@@ -4536,8 +4816,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4552,15 +4832,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="38"/>
@@ -4573,7 +4853,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="36" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -4584,31 +4864,31 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="23.25">
-      <c r="A6" s="262" t="s">
+      <c r="A6" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="263"/>
-      <c r="C6" s="263"/>
-      <c r="D6" s="263"/>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
-      <c r="G6" s="264"/>
+      <c r="B6" s="268"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268"/>
+      <c r="G6" s="269"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="130" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B7" s="131" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D7" s="131" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F7" s="131" t="s">
         <v>17</v>
@@ -4619,7 +4899,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="133" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B8" s="134">
         <v>1</v>
@@ -4639,7 +4919,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="136" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B9" s="137">
         <v>1</v>
@@ -4659,7 +4939,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="133" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B10" s="134">
         <v>1</v>
@@ -4679,7 +4959,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="136" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B11" s="137">
         <v>0.85</v>
@@ -4696,12 +4976,12 @@
       </c>
       <c r="F11" s="137"/>
       <c r="G11" s="138" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="133" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B12" s="134">
         <v>1</v>
@@ -4718,12 +4998,12 @@
       </c>
       <c r="F12" s="134"/>
       <c r="G12" s="135" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="133" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B13" s="134">
         <v>0.75</v>
@@ -4740,12 +5020,12 @@
       </c>
       <c r="F13" s="134"/>
       <c r="G13" s="135" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="136" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B14" s="137">
         <v>0.9</v>
@@ -4762,15 +5042,15 @@
       </c>
       <c r="F14" s="137"/>
       <c r="G14" s="138" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="139" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="265"/>
-      <c r="C15" s="265"/>
+        <v>141</v>
+      </c>
+      <c r="B15" s="270"/>
+      <c r="C15" s="270"/>
       <c r="D15" s="140">
         <f>SUM(D8:D14)</f>
         <v>100</v>
@@ -4784,7 +5064,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="143" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B16" s="144" t="s">
         <v>14</v>
@@ -4794,7 +5074,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="145" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F16" s="145"/>
       <c r="G16" s="146" t="s">
@@ -4803,7 +5083,7 @@
     </row>
     <row r="17" spans="1:7" ht="60.75">
       <c r="A17" s="147" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B17" s="211">
         <v>0.4</v>
@@ -4818,12 +5098,12 @@
       </c>
       <c r="F17" s="211"/>
       <c r="G17" s="213" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="148" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B18" s="149">
         <v>0</v>
@@ -4840,31 +5120,31 @@
       <c r="G18" s="151"/>
     </row>
     <row r="19" spans="1:7" ht="23.25">
-      <c r="A19" s="266" t="s">
+      <c r="A19" s="271" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="267"/>
-      <c r="C19" s="267"/>
-      <c r="D19" s="267"/>
-      <c r="E19" s="267"/>
-      <c r="F19" s="267"/>
-      <c r="G19" s="268"/>
+      <c r="B19" s="272"/>
+      <c r="C19" s="272"/>
+      <c r="D19" s="272"/>
+      <c r="E19" s="272"/>
+      <c r="F19" s="272"/>
+      <c r="G19" s="273"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="152" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B20" s="153" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="153" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D20" s="153" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="153" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F20" s="153" t="s">
         <v>17</v>
@@ -4873,129 +5153,133 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="76.5">
       <c r="A21" s="155" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B21" s="156">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C21" s="156">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D21" s="156">
         <v>26</v>
       </c>
       <c r="E21" s="156">
         <f>B21*C21*D21</f>
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="F21" s="156"/>
-      <c r="G21" s="157"/>
+      <c r="G21" s="217" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="158" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B22" s="159">
-        <v>0</v>
-      </c>
-      <c r="C22" s="159">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C22" s="156">
+        <v>1</v>
       </c>
       <c r="D22" s="159">
         <v>16</v>
       </c>
       <c r="E22" s="159">
         <f t="shared" ref="E22:E26" si="1">B22*C22*D22</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F22" s="159"/>
       <c r="G22" s="160"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="155" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B23" s="156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="156">
         <v>26</v>
       </c>
       <c r="E23" s="156">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F23" s="156"/>
       <c r="G23" s="157"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="158" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B24" s="159">
-        <v>0</v>
-      </c>
-      <c r="C24" s="159">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C24" s="156">
+        <v>1</v>
       </c>
       <c r="D24" s="159">
         <v>14</v>
       </c>
       <c r="E24" s="159">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F24" s="159"/>
       <c r="G24" s="160"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="30.75">
       <c r="A25" s="155" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B25" s="156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="156">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D25" s="156">
         <v>10</v>
       </c>
       <c r="E25" s="156">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F25" s="156"/>
-      <c r="G25" s="157"/>
+      <c r="G25" s="218" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="158" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B26" s="159">
-        <v>0</v>
-      </c>
-      <c r="C26" s="159">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C26" s="156">
+        <v>1</v>
       </c>
       <c r="D26" s="159">
         <v>8</v>
       </c>
       <c r="E26" s="159">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F26" s="159"/>
       <c r="G26" s="160"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="161" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B27" s="162"/>
       <c r="C27" s="162"/>
@@ -5005,14 +5289,14 @@
       </c>
       <c r="E27" s="163">
         <f>(SUM(E21:E26) + E29+E30+E31)/D27</f>
-        <v>0</v>
+        <v>0.8448</v>
       </c>
       <c r="F27" s="163"/>
       <c r="G27" s="164"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="165" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B28" s="166" t="s">
         <v>14</v>
@@ -5022,7 +5306,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="167" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F28" s="167"/>
       <c r="G28" s="168" t="s">
@@ -5031,7 +5315,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="169" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B29" s="170">
         <v>0</v>
@@ -5049,7 +5333,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="173" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="B30" s="174">
         <v>0</v>
@@ -5067,7 +5351,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="177" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="B31" s="178">
         <v>0</v>
@@ -5084,31 +5368,31 @@
       <c r="G31" s="180"/>
     </row>
     <row r="32" spans="1:7" ht="23.25">
-      <c r="A32" s="259" t="s">
+      <c r="A32" s="264" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="260"/>
-      <c r="C32" s="260"/>
-      <c r="D32" s="260"/>
-      <c r="E32" s="260"/>
-      <c r="F32" s="260"/>
-      <c r="G32" s="261"/>
+      <c r="B32" s="265"/>
+      <c r="C32" s="265"/>
+      <c r="D32" s="265"/>
+      <c r="E32" s="265"/>
+      <c r="F32" s="265"/>
+      <c r="G32" s="266"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="181" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B33" s="182" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="182" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D33" s="182" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="182" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F33" s="182" t="s">
         <v>17</v>
@@ -5119,147 +5403,147 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="184" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="B34" s="185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="185">
         <v>30</v>
       </c>
       <c r="E34" s="185">
         <f t="shared" ref="E34:E40" si="2">B34*C34*D34</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F34" s="185"/>
       <c r="G34" s="186"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="187" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="B35" s="188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="188">
         <v>12</v>
       </c>
       <c r="E35" s="188">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F35" s="188"/>
       <c r="G35" s="189"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="184" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B36" s="185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="185">
         <v>8</v>
       </c>
       <c r="E36" s="185">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F36" s="185"/>
       <c r="G36" s="186"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="187" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="B37" s="188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="188">
         <v>14</v>
       </c>
       <c r="E37" s="188">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F37" s="188"/>
       <c r="G37" s="189"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="184" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B38" s="185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="185">
         <v>12</v>
       </c>
       <c r="E38" s="185">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F38" s="185"/>
       <c r="G38" s="186"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="187" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B39" s="188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="188">
         <v>18</v>
       </c>
       <c r="E39" s="188">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F39" s="188"/>
       <c r="G39" s="189"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="184" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B40" s="185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="185">
         <v>6</v>
       </c>
       <c r="E40" s="185">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F40" s="185"/>
       <c r="G40" s="186"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="190" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B41" s="191"/>
       <c r="C41" s="191"/>
@@ -5269,14 +5553,14 @@
       </c>
       <c r="E41" s="192">
         <f>(SUM(E34:E40) +E43+E44+E45)/D41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="192"/>
       <c r="G41" s="193"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="194" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B42" s="195" t="s">
         <v>14</v>
@@ -5286,7 +5570,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="196" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F42" s="196"/>
       <c r="G42" s="197" t="s">
@@ -5295,7 +5579,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="198" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B43" s="199">
         <v>0</v>
@@ -5313,7 +5597,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="202" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B44" s="203">
         <v>0</v>
@@ -5331,7 +5615,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="206" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="B45" s="207">
         <v>0</v>
